--- a/Monthly/ACF - PACF/First Difference/toyota residuals - values.xlsx
+++ b/Monthly/ACF - PACF/First Difference/toyota residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01056232103449594</v>
+        <v>0.006246846314962437</v>
       </c>
       <c r="C3">
-        <v>0.01066196557255717</v>
+        <v>0.006305778827367701</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06276438111093131</v>
+        <v>0.007341919226990039</v>
       </c>
       <c r="C4">
-        <v>0.06385347432617951</v>
+        <v>0.007442298387853722</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1261232488241448</v>
+        <v>0.0145114008277358</v>
       </c>
       <c r="C5">
-        <v>0.1289827214018968</v>
+        <v>0.01483765397885051</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06414372084631118</v>
+        <v>0.03617068101104008</v>
       </c>
       <c r="C6">
-        <v>0.06232505517667734</v>
+        <v>0.03734679684228191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1215073516503766</v>
+        <v>-0.04761041849060802</v>
       </c>
       <c r="C7">
-        <v>-0.1471790323179814</v>
+        <v>-0.05069155702318402</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02898025236726232</v>
+        <v>-0.0207801804063588</v>
       </c>
       <c r="C8">
-        <v>-0.05837637641217326</v>
+        <v>-0.02221466909616275</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09270844143345192</v>
+        <v>0.008538959506091178</v>
       </c>
       <c r="C9">
-        <v>0.1063524371104744</v>
+        <v>0.009131152856649503</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.1557527190532985</v>
+        <v>-0.07737810645538272</v>
       </c>
       <c r="C10">
-        <v>-0.1365111379292111</v>
+        <v>-0.08369992793256778</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1357236627163408</v>
+        <v>-0.07032742041730239</v>
       </c>
       <c r="C11">
-        <v>-0.1452525180202537</v>
+        <v>-0.07218724475168382</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.001398415976474492</v>
+        <v>-0.09143265627868478</v>
       </c>
       <c r="C12">
-        <v>-0.01593941282211126</v>
+        <v>-0.1016981669272788</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.06737142706039009</v>
+        <v>-0.09251289909055301</v>
       </c>
       <c r="C13">
-        <v>-0.03706428624822129</v>
+        <v>-0.1060903827286344</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.05909904762665433</v>
+        <v>0.05787565193605287</v>
       </c>
       <c r="C14">
-        <v>0.01331330192021407</v>
+        <v>0.07493015121078234</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.05116646433767998</v>
+        <v>0.08726915501009251</v>
       </c>
       <c r="C15">
-        <v>0.05957799006274382</v>
+        <v>0.1048089454972056</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0588848910906041</v>
+        <v>-0.005764944555982122</v>
       </c>
       <c r="C16">
-        <v>0.03224721982964678</v>
+        <v>-0.006060688677313012</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2130873576815021</v>
+        <v>-0.2072420506910211</v>
       </c>
       <c r="C17">
-        <v>-0.2501213299962011</v>
+        <v>-0.2609824799652746</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1086186912255033</v>
+        <v>-0.08936698807156052</v>
       </c>
       <c r="C18">
-        <v>-0.1838955510788569</v>
+        <v>-0.1602733536448359</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1080388339108355</v>
+        <v>0.07756681527686811</v>
       </c>
       <c r="C19">
-        <v>0.1263051273788494</v>
+        <v>0.0909438118158362</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1010214151039975</v>
+        <v>0.1178156286199159</v>
       </c>
       <c r="C20">
-        <v>0.2644173092778964</v>
+        <v>0.1970108657704098</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.01488779604813579</v>
+        <v>0.04507162575530451</v>
       </c>
       <c r="C21">
-        <v>0.03838350769038696</v>
+        <v>0.0761111923035136</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.03440504749430632</v>
+        <v>-0.01340336181809495</v>
       </c>
       <c r="C22">
-        <v>-0.1614146764358954</v>
+        <v>-0.1016764521840884</v>
       </c>
     </row>
   </sheetData>
